--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carson/Desktop/Swimming CS/Time importer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carson/Desktop/winmeets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA6003-B98E-5045-A078-8089A7DA2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A2283-A234-1749-8C01-1AC2E46E84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7740" windowWidth="28800" windowHeight="16300" xr2:uid="{56946622-EE27-D84C-A322-0663A06B8BA3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="4" xr2:uid="{56946622-EE27-D84C-A322-0663A06B8BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="RQAL" sheetId="13" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>50 Y Free</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Name Again</t>
-  </si>
-  <si>
     <t>Women Regional Qal</t>
   </si>
   <si>
@@ -154,6 +151,42 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>POINTS</t>
   </si>
 </sst>
 </file>
@@ -163,10 +196,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm:ss.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,38 +231,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm:ss.00"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -277,7 +304,7 @@
       <numFmt numFmtId="164" formatCode="mm:ss.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm:ss.00"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -444,66 +471,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EF87AA6-E653-A14D-A499-5C3322363763}" name="Table57" displayName="Table57" ref="A1:S27" totalsRowShown="0">
-  <autoFilter ref="A1:S27" xr:uid="{2C5C779E-4B04-414B-824D-1A0B56546218}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S26">
-    <sortCondition ref="R1:R26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5EF87AA6-E653-A14D-A499-5C3322363763}" name="Table57" displayName="Table57" ref="A1:U6" totalsRowShown="0">
+  <autoFilter ref="A1:U6" xr:uid="{2C5C779E-4B04-414B-824D-1A0B56546218}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T26">
+    <sortCondition ref="S1:S26"/>
   </sortState>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{9905C974-7C70-894A-8EC0-36E500F6D0F9}" name="Name"/>
+    <tableColumn id="7" xr3:uid="{5755F005-3480-2440-A057-5956EB217039}" name="Team"/>
     <tableColumn id="2" xr3:uid="{FB03B66C-44B5-E342-AA6D-8F455D1F8177}" name="50 Y Free" dataDxfId="37">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D4A7DE71-CDB5-9B4E-9336-EEA5C1835618}" name="100 Y Free" dataDxfId="36">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=D$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{69B95DB0-1054-014A-A068-4BAFF8C6EA13}" name="200 Y Free" dataDxfId="35">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=D$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=E$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{463CEEA1-481D-4149-9EEB-1763A40A0163}" name="500 Y Free" dataDxfId="34">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=E$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=F$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{08B26535-2AA9-464E-8EB3-42C4BECD0F79}" name="100 Y Back" dataDxfId="33">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=F$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=G$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{56175118-4021-DB44-8C5E-45B8F08A5DB7}" name="100 Y Breast" dataDxfId="32">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=G$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=H$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{2E14E2E3-9603-DE4B-A9E6-FB88A0DB4588}" name="100 Y Fly" dataDxfId="31">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=H$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{E32A9583-03E0-114F-9D84-830924F577B2}" name="200 Y IM" dataDxfId="30">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{886B4302-63C8-DE4F-ADF2-5CC9946C73C2}" name="P" dataDxfId="29">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(B2,B:B,1),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{FA8BC883-D3D4-C047-93BA-5EC727F850D1}" name="P2" dataDxfId="28">
+    <tableColumn id="19" xr3:uid="{886B4302-63C8-DE4F-ADF2-5CC9946C73C2}" name="50" dataDxfId="29">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{6678E383-37B9-C549-90D3-218FF4A210C2}" name="P3" dataDxfId="27">
+    <tableColumn id="20" xr3:uid="{FA8BC883-D3D4-C047-93BA-5EC727F850D1}" name="100" dataDxfId="28">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{AF251594-C390-2C43-8B9A-5C609934AA8A}" name="P4" dataDxfId="26">
+    <tableColumn id="21" xr3:uid="{6678E383-37B9-C549-90D3-218FF4A210C2}" name="200" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{B6484281-A85B-C940-A513-B3B7B6DDA32F}" name="P5" dataDxfId="25">
+    <tableColumn id="22" xr3:uid="{AF251594-C390-2C43-8B9A-5C609934AA8A}" name="500" dataDxfId="26">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{41D30D06-D6A5-6643-A271-D2F2C8EBDCBB}" name="P6" dataDxfId="24">
+    <tableColumn id="23" xr3:uid="{B6484281-A85B-C940-A513-B3B7B6DDA32F}" name="BK" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{202D74A1-64AA-594D-A831-EC4B3E861241}" name="P7" dataDxfId="23">
+    <tableColumn id="24" xr3:uid="{41D30D06-D6A5-6643-A271-D2F2C8EBDCBB}" name="BR" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{E26D904C-4129-2941-996A-CE9C941044D4}" name="P8" dataDxfId="22">
+    <tableColumn id="25" xr3:uid="{202D74A1-64AA-594D-A831-EC4B3E861241}" name="FL" dataDxfId="23">
       <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="26" xr3:uid="{E26D904C-4129-2941-996A-CE9C941044D4}" name="IM" dataDxfId="22">
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(J2,J:J,1),"")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="27" xr3:uid="{00A5AF6A-64DD-4C4F-8A33-469C266F86D1}" name="Average" dataDxfId="21">
-      <calculatedColumnFormula>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0B593E57-F33C-E14A-AB2E-0ADB20F8FBA2}" name="Name Again" dataDxfId="20">
-      <calculatedColumnFormula>Table57[[#This Row],[Name]]</calculatedColumnFormula>
+    <tableColumn id="28" xr3:uid="{0B593E57-F33C-E14A-AB2E-0ADB20F8FBA2}" name="SMALL" dataDxfId="20">
+      <calculatedColumnFormula>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{47BB195E-486C-6C46-8C83-7A516A78ED9D}" name="POINTS" dataDxfId="0">
+      <calculatedColumnFormula>IF(COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12")&gt;2,2,COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -511,66 +542,70 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DDC429C-CF27-FD44-B593-238B4715646C}" name="Table572" displayName="Table572" ref="A1:S27" totalsRowShown="0">
-  <autoFilter ref="A1:S27" xr:uid="{2C5C779E-4B04-414B-824D-1A0B56546218}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S26">
-    <sortCondition ref="R1:R26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DDC429C-CF27-FD44-B593-238B4715646C}" name="Table572" displayName="Table572" ref="A1:U27" totalsRowShown="0">
+  <autoFilter ref="A1:U27" xr:uid="{2C5C779E-4B04-414B-824D-1A0B56546218}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T26">
+    <sortCondition ref="S1:S26"/>
   </sortState>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{5359D727-0636-C64B-9752-1CE8EB5FD1B8}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{9671A1BE-FFAB-1E42-88D4-BDF486A5C61B}" name="Team"/>
     <tableColumn id="2" xr3:uid="{3A2B1998-83B1-C040-BA59-4BC9644DC63C}" name="50 Y Free" dataDxfId="19">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{CA1B9330-BFB4-7D44-9C42-950CF3A9AFB5}" name="100 Y Free" dataDxfId="18">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=D$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{98D6866D-DFED-E34F-9118-BA6BA78FD2C6}" name="200 Y Free" dataDxfId="17">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=D$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=E$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{AFCA9470-810E-DE4D-8044-5B42E000E46E}" name="500 Y Free" dataDxfId="16">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=E$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=F$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{88B9F8E2-3AD0-6241-AA48-A62B5C4E1D43}" name="100 Y Back" dataDxfId="15">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=F$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=G$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{588A30BE-E5F0-F84C-8A6E-0C67BC55C1AB}" name="100 Y Breast" dataDxfId="14">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=G$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=H$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{F06DF7B6-3795-044F-BAC1-B1A0B6A5E1CB}" name="100 Y Fly" dataDxfId="13">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=H$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{B39848A9-E014-F049-B1B8-F4467E34BEDA}" name="200 Y IM" dataDxfId="12">
-      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{56D8A02D-46AB-C246-AD61-B543091B0230}" name="P" dataDxfId="11">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(B2,B:B,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{DEE3B59F-2538-2F49-8130-C0216D970CB9}" name="P2" dataDxfId="10">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{0D93E8AF-1556-284A-99E3-C316E4B6F2F1}" name="P3" dataDxfId="9">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{CA69A339-9789-114C-B21A-4CFEAC4A86CC}" name="P4" dataDxfId="8">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" xr3:uid="{91385C48-901A-BE47-97E7-2FEB2D0A0E4B}" name="P5" dataDxfId="7">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{66A5EAD8-D131-BB44-8676-CB7BF9E91165}" name="P6" dataDxfId="6">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" xr3:uid="{EA04F11B-AC57-2D4D-ACD2-0B4E5548591A}" name="P7" dataDxfId="5">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" xr3:uid="{841655E0-EA65-5540-9279-019F666AA7E9}" name="P8" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(_xlfn.RANK.EQ(J2,J:J,1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{CD68426D-020C-1C46-88C5-BA33948CB641}" name="Average" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{4538C50C-785E-4642-B15A-C294EE1DD731}" name="Name Again" dataDxfId="2">
-      <calculatedColumnFormula>Table572[[#This Row],[Name]]</calculatedColumnFormula>
+    <tableColumn id="28" xr3:uid="{4538C50C-785E-4642-B15A-C294EE1DD731}" name="LARGE" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6770E70B-1EFD-074D-B959-836E781F4A60}" name="POINTS" dataDxfId="1">
+      <calculatedColumnFormula>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -876,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1988CFD-72FA-2340-B366-38D5A43E126E}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -926,10 +961,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="49.83203125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -985,7 +1023,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>2.892361111111111E-4</v>
@@ -1014,7 +1052,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>2.6030092592592592E-4</v>
@@ -1148,88 +1186,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F86FCEC-EE45-D74B-8A92-08174E7062B9}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="str" cm="1">
-        <f t="array" ref="B2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="T1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="str" cm="1">
         <f t="array" ref="C2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1258,52 +1301,56 @@
         <f t="array" ref="I2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J31" si="0">IFERROR(_xlfn.RANK.EQ(B2,B:B,1),"")</f>
+      <c r="J2" s="2" t="str" cm="1">
+        <f t="array" ref="J2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K31" si="1">IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</f>
+        <f t="shared" ref="K2:K31" si="0">IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="2">IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</f>
+        <f t="shared" ref="L2:L31" si="1">IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M31" si="3">IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</f>
+        <f t="shared" ref="M2:M31" si="2">IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N31" si="4">IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</f>
+        <f t="shared" ref="N2:N31" si="3">IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</f>
         <v/>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O31" si="5">IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</f>
+        <f t="shared" ref="O2:O31" si="4">IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</f>
         <v/>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P31" si="6">IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</f>
+        <f t="shared" ref="P2:P31" si="5">IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</f>
         <v/>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q31" si="7">IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</f>
-        <v/>
-      </c>
-      <c r="R2" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S2" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
+        <f t="shared" ref="Q2:Q31" si="6">IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</f>
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R31" si="7">IFERROR(_xlfn.RANK.EQ(J2,J:J,1),"")</f>
+        <v/>
+      </c>
+      <c r="S2" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T2" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U2" s="5">
+        <f>IF(COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12")&gt;2,2,COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" ref="B3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" ref="C3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1332,52 +1379,56 @@
         <f t="array" ref="I3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="2" t="str" cm="1">
+        <f t="array" ref="J3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R3" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
+      <c r="S3" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U3" s="5">
+        <f>IF(COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12")&gt;2,2,COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="str" cm="1">
-        <f t="array" ref="B4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" ref="C4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1406,52 +1457,56 @@
         <f t="array" ref="I4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="2" t="str" cm="1">
+        <f t="array" ref="J4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R4" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S4" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
+      <c r="S4" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="5">
+        <f>IF(COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12")&gt;2,2,COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="str" cm="1">
-        <f t="array" ref="B5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" ref="C5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1480,52 +1535,56 @@
         <f t="array" ref="I5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="2" t="str" cm="1">
+        <f t="array" ref="J5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R5" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
+      <c r="S5" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U5" s="5">
+        <f>IF(COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12")&gt;2,2,COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="str" cm="1">
-        <f t="array" ref="B6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" ref="C6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1554,52 +1613,56 @@
         <f t="array" ref="I6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="2" t="str" cm="1">
+        <f t="array" ref="J6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R6" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S6" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
+      <c r="S6" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U6" s="5">
+        <f>IF(COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12")&gt;2,2,COUNTIF(Table57[[#This Row],[50]:[IM]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="str" cm="1">
-        <f t="array" ref="B7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1628,52 +1691,53 @@
         <f t="array" ref="I7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="2" t="str" cm="1">
+        <f t="array" ref="J7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R7" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S7" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S7" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" ref="C8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1702,52 +1766,53 @@
         <f t="array" ref="I8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="2" t="str" cm="1">
+        <f t="array" ref="J8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R8" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S8" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="str" cm="1">
-        <f t="array" ref="B9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S8" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" ref="C9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1776,52 +1841,53 @@
         <f t="array" ref="I9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="2" t="str" cm="1">
+        <f t="array" ref="J9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R9" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="str" cm="1">
-        <f t="array" ref="B10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S9" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1850,52 +1916,53 @@
         <f t="array" ref="I10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="2" t="str" cm="1">
+        <f t="array" ref="J10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R10" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="str" cm="1">
-        <f t="array" ref="B11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S10" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" ref="C11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1924,52 +1991,53 @@
         <f t="array" ref="I11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="2" t="str" cm="1">
+        <f t="array" ref="J11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R11" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S11" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="str" cm="1">
-        <f t="array" ref="B12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S11" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T11" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" ref="C12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -1998,52 +2066,53 @@
         <f t="array" ref="I12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="2" t="str" cm="1">
+        <f t="array" ref="J12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R12" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="str" cm="1">
-        <f t="array" ref="B13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S12" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T12" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" ref="C13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2072,52 +2141,53 @@
         <f t="array" ref="I13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="2" t="str" cm="1">
+        <f t="array" ref="J13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R13" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S13" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="str" cm="1">
-        <f t="array" ref="B14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S13" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" ref="C14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2146,52 +2216,53 @@
         <f t="array" ref="I14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="2" t="str" cm="1">
+        <f t="array" ref="J14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R14" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="str" cm="1">
-        <f t="array" ref="B15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S14" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" ref="C15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2220,52 +2291,53 @@
         <f t="array" ref="I15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="2" t="str" cm="1">
+        <f t="array" ref="J15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R15" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S15" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="str" cm="1">
-        <f t="array" ref="B16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S15" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T15" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" ref="C16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2294,52 +2366,53 @@
         <f t="array" ref="I16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="2" t="str" cm="1">
+        <f t="array" ref="J16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R16" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S16" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="str" cm="1">
-        <f t="array" ref="B17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S16" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" ref="C17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2368,52 +2441,53 @@
         <f t="array" ref="I17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="2" t="str" cm="1">
+        <f t="array" ref="J17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R17" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="str" cm="1">
-        <f t="array" ref="B18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S17" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="str" cm="1">
         <f t="array" ref="C18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2442,52 +2516,53 @@
         <f t="array" ref="I18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="2" t="str" cm="1">
+        <f t="array" ref="J18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R18" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S18" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="str" cm="1">
-        <f t="array" ref="B19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S18" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T18" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="str" cm="1">
         <f t="array" ref="C19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2516,52 +2591,53 @@
         <f t="array" ref="I19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="2" t="str" cm="1">
+        <f t="array" ref="J19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R19" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S19" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="str" cm="1">
-        <f t="array" ref="B20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S19" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T19" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="str" cm="1">
         <f t="array" ref="C20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2590,52 +2666,53 @@
         <f t="array" ref="I20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="2" t="str" cm="1">
+        <f t="array" ref="J20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R20" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S20" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="str" cm="1">
-        <f t="array" ref="B21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S20" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T20" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="str" cm="1">
         <f t="array" ref="C21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2664,52 +2741,53 @@
         <f t="array" ref="I21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="2" t="str" cm="1">
+        <f t="array" ref="J21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R21" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S21" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="str" cm="1">
-        <f t="array" ref="B22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S21" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="str" cm="1">
         <f t="array" ref="C22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2738,52 +2816,53 @@
         <f t="array" ref="I22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="2" t="str" cm="1">
+        <f t="array" ref="J22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R22" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S22" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="str" cm="1">
-        <f t="array" ref="B23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S22" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T22" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="str" cm="1">
         <f t="array" ref="C23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2812,52 +2891,53 @@
         <f t="array" ref="I23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="2" t="str" cm="1">
+        <f t="array" ref="J23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R23" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="str" cm="1">
-        <f t="array" ref="B24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S23" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="str" cm="1">
         <f t="array" ref="C24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2886,52 +2966,53 @@
         <f t="array" ref="I24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="2" t="str" cm="1">
+        <f t="array" ref="J24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R24" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="str" cm="1">
-        <f t="array" ref="B25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S24" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T24" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="str" cm="1">
         <f t="array" ref="C25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -2960,52 +3041,53 @@
         <f t="array" ref="I25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="2" t="str" cm="1">
+        <f t="array" ref="J25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R25" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S25" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="str" cm="1">
-        <f t="array" ref="B26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S25" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="str" cm="1">
         <f t="array" ref="C26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3034,52 +3116,53 @@
         <f t="array" ref="I26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="2" t="str" cm="1">
+        <f t="array" ref="J26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R26" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S26" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="str" cm="1">
-        <f t="array" ref="B27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S26" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T26" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="str" cm="1">
         <f t="array" ref="C27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3108,52 +3191,53 @@
         <f t="array" ref="I27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="2" t="str" cm="1">
+        <f t="array" ref="J27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R27" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-      <c r="S27" s="2">
-        <f>Table57[[#This Row],[Name]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="str" cm="1">
-        <f t="array" ref="B28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S27" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+      <c r="T27" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table57[[#This Row],[50]:[IM]],1),SMALL(Table57[[#This Row],[50]:[IM]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="str" cm="1">
         <f t="array" ref="C28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3182,48 +3266,48 @@
         <f t="array" ref="I28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="2" t="str" cm="1">
+        <f t="array" ref="J28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R28" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="str" cm="1">
-        <f t="array" ref="B29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S28" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="str" cm="1">
         <f t="array" ref="C29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3252,48 +3336,48 @@
         <f t="array" ref="I29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="2" t="str" cm="1">
+        <f t="array" ref="J29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R29" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="str" cm="1">
-        <f t="array" ref="B30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S29" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="str" cm="1">
         <f t="array" ref="C30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3322,48 +3406,48 @@
         <f t="array" ref="I30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="2" t="str" cm="1">
+        <f t="array" ref="J30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R30" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="str" cm="1">
-        <f t="array" ref="B31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S30" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="str" cm="1">
         <f t="array" ref="C31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3392,48 +3476,48 @@
         <f t="array" ref="I31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="2" t="str" cm="1">
+        <f t="array" ref="J31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R31" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="str" cm="1">
-        <f t="array" ref="B32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="S31" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="str" cm="1">
         <f t="array" ref="C32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3462,28 +3546,28 @@
         <f t="array" ref="I32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" ref="J32:L33" si="8">IFERROR(_xlfn.RANK.EQ(B32,B:B,1),"")</f>
+      <c r="J32" s="2" t="str" cm="1">
+        <f t="array" ref="J32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K32:M33" si="8">IFERROR(_xlfn.RANK.EQ(C32,C:C,1),"")</f>
         <v/>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R32" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="str" cm="1">
-        <f t="array" ref="B33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S32" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="str" cm="1">
         <f t="array" ref="C33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3512,8 +3596,8 @@
         <f t="array" ref="I33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="8"/>
+      <c r="J33" s="2" t="str" cm="1">
+        <f t="array" ref="J33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
       <c r="K33" t="str">
@@ -3524,16 +3608,16 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R33" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J34" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(#REF!,B:B,1),"")</f>
-        <v/>
-      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S33" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="K34" t="str">
         <f>IFERROR(_xlfn.RANK.EQ(#REF!,C:C,1),"")</f>
         <v/>
@@ -3542,16 +3626,16 @@
         <f>IFERROR(_xlfn.RANK.EQ(#REF!,D:D,1),"")</f>
         <v/>
       </c>
-      <c r="R34" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N35" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(F35,F:F,1),"")</f>
-        <v/>
-      </c>
+      <c r="M34" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(#REF!,E:E,1),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="O35" t="str">
         <f>IFERROR(_xlfn.RANK.EQ(G35,G:G,1),"")</f>
         <v/>
@@ -3564,13 +3648,18 @@
         <f>IFERROR(_xlfn.RANK.EQ(I35,I:I,1),"")</f>
         <v/>
       </c>
-      <c r="R35" s="3" t="str">
-        <f>IFERROR(AVERAGE(Table57[[#This Row],[P]:[P8]]),"")</f>
+      <c r="R35" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(J35,J:J,1),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="3" t="str">
+        <f>IFERROR(AVERAGE(Table57[[#This Row],[50]:[IM]]),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:Q27">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K2:R6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3582,7 +3671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R27">
+  <conditionalFormatting sqref="S2:S6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3599,115 +3688,98 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{DC994F29-9C45-344B-B563-DAE802E989CD}">
-            <xm:f>B2&lt;='Time Standards'!B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B2:I27</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53983DBC-B394-D34E-A98E-9E1A07F01F13}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="str" cm="1">
-        <f t="array" ref="B2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="T1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="str" cm="1">
         <f t="array" ref="C2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3736,52 +3808,56 @@
         <f t="array" ref="I2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J31" si="0">IFERROR(_xlfn.RANK.EQ(B2,B:B,1),"")</f>
+      <c r="J2" s="2" t="str" cm="1">
+        <f t="array" ref="J2">IFERROR(VLOOKUP($A2,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K31" si="1">IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</f>
+        <f t="shared" ref="K2:K31" si="0">IFERROR(_xlfn.RANK.EQ(C2,C:C,1),"")</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="2">IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</f>
+        <f t="shared" ref="L2:L31" si="1">IFERROR(_xlfn.RANK.EQ(D2,D:D,1),"")</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M31" si="3">IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</f>
+        <f t="shared" ref="M2:M31" si="2">IFERROR(_xlfn.RANK.EQ(E2,E:E,1),"")</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N31" si="4">IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</f>
+        <f t="shared" ref="N2:N31" si="3">IFERROR(_xlfn.RANK.EQ(F2,F:F,1),"")</f>
         <v/>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O31" si="5">IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</f>
+        <f t="shared" ref="O2:O31" si="4">IFERROR(_xlfn.RANK.EQ(G2,G:G,1),"")</f>
         <v/>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P31" si="6">IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</f>
+        <f t="shared" ref="P2:P31" si="5">IFERROR(_xlfn.RANK.EQ(H2,H:H,1),"")</f>
         <v/>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q31" si="7">IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</f>
-        <v/>
-      </c>
-      <c r="R2" s="3" t="str">
+        <f t="shared" ref="Q2:Q31" si="6">IFERROR(_xlfn.RANK.EQ(I2,I:I,1),"")</f>
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R31" si="7">IFERROR(_xlfn.RANK.EQ(J2,J:J,1),"")</f>
+        <v/>
+      </c>
+      <c r="S2" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S2" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T2" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U2" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" ref="B3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" ref="C3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3810,52 +3886,56 @@
         <f t="array" ref="I3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="2" t="str" cm="1">
+        <f t="array" ref="J3">IFERROR(VLOOKUP($A3,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R3" s="3" t="str">
+      <c r="S3" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S3" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T3" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U3" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="str" cm="1">
-        <f t="array" ref="B4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" ref="C4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3884,52 +3964,56 @@
         <f t="array" ref="I4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="2" t="str" cm="1">
+        <f t="array" ref="J4">IFERROR(VLOOKUP($A4,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R4" s="3" t="str">
+      <c r="S4" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S4" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T4" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="str" cm="1">
-        <f t="array" ref="B5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" ref="C5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -3958,52 +4042,56 @@
         <f t="array" ref="I5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="2" t="str" cm="1">
+        <f t="array" ref="J5">IFERROR(VLOOKUP($A5,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="S5" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S5" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T5" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U5" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="str" cm="1">
-        <f t="array" ref="B6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" ref="C6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4032,52 +4120,56 @@
         <f t="array" ref="I6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="2" t="str" cm="1">
+        <f t="array" ref="J6">IFERROR(VLOOKUP($A6,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R6" s="3" t="str">
+      <c r="S6" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S6" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T6" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U6" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="str" cm="1">
-        <f t="array" ref="B7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4106,52 +4198,56 @@
         <f t="array" ref="I7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="2" t="str" cm="1">
+        <f t="array" ref="J7">IFERROR(VLOOKUP($A7,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R7" s="3" t="str">
+      <c r="S7" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S7" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T7" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U7" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" ref="C8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4180,52 +4276,56 @@
         <f t="array" ref="I8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="2" t="str" cm="1">
+        <f t="array" ref="J8">IFERROR(VLOOKUP($A8,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R8" s="3" t="str">
+      <c r="S8" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S8" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T8" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="str" cm="1">
-        <f t="array" ref="B9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" ref="C9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4254,52 +4354,56 @@
         <f t="array" ref="I9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="2" t="str" cm="1">
+        <f t="array" ref="J9">IFERROR(VLOOKUP($A9,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R9" s="3" t="str">
+      <c r="S9" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S9" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T9" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U9" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="str" cm="1">
-        <f t="array" ref="B10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4328,52 +4432,56 @@
         <f t="array" ref="I10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="2" t="str" cm="1">
+        <f t="array" ref="J10">IFERROR(VLOOKUP($A10,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="S10" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S10" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T10" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="str" cm="1">
-        <f t="array" ref="B11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" ref="C11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4402,52 +4510,56 @@
         <f t="array" ref="I11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="2" t="str" cm="1">
+        <f t="array" ref="J11">IFERROR(VLOOKUP($A11,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R11" s="3" t="str">
+      <c r="S11" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S11" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T11" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="str" cm="1">
-        <f t="array" ref="B12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" ref="C12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4476,52 +4588,56 @@
         <f t="array" ref="I12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="2" t="str" cm="1">
+        <f t="array" ref="J12">IFERROR(VLOOKUP($A12,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R12" s="3" t="str">
+      <c r="S12" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S12" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T12" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U12" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="str" cm="1">
-        <f t="array" ref="B13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" ref="C13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4550,52 +4666,56 @@
         <f t="array" ref="I13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="2" t="str" cm="1">
+        <f t="array" ref="J13">IFERROR(VLOOKUP($A13,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R13" s="3" t="str">
+      <c r="S13" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S13" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T13" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="str" cm="1">
-        <f t="array" ref="B14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" ref="C14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4624,52 +4744,56 @@
         <f t="array" ref="I14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="2" t="str" cm="1">
+        <f t="array" ref="J14">IFERROR(VLOOKUP($A14,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R14" s="3" t="str">
+      <c r="S14" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S14" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T14" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="str" cm="1">
-        <f t="array" ref="B15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" ref="C15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4698,52 +4822,56 @@
         <f t="array" ref="I15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="2" t="str" cm="1">
+        <f t="array" ref="J15">IFERROR(VLOOKUP($A15,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R15" s="3" t="str">
+      <c r="S15" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S15" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T15" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U15" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="str" cm="1">
-        <f t="array" ref="B16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" ref="C16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4772,52 +4900,56 @@
         <f t="array" ref="I16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="2" t="str" cm="1">
+        <f t="array" ref="J16">IFERROR(VLOOKUP($A16,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R16" s="3" t="str">
+      <c r="S16" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S16" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T16" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="str" cm="1">
-        <f t="array" ref="B17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" ref="C17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4846,52 +4978,56 @@
         <f t="array" ref="I17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="2" t="str" cm="1">
+        <f t="array" ref="J17">IFERROR(VLOOKUP($A17,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R17" s="3" t="str">
+      <c r="S17" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S17" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T17" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="str" cm="1">
-        <f t="array" ref="B18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="str" cm="1">
         <f t="array" ref="C18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4920,52 +5056,56 @@
         <f t="array" ref="I18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="2" t="str" cm="1">
+        <f t="array" ref="J18">IFERROR(VLOOKUP($A18,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R18" s="3" t="str">
+      <c r="S18" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S18" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T18" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U18" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="str" cm="1">
-        <f t="array" ref="B19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="str" cm="1">
         <f t="array" ref="C19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -4994,52 +5134,56 @@
         <f t="array" ref="I19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="2" t="str" cm="1">
+        <f t="array" ref="J19">IFERROR(VLOOKUP($A19,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R19" s="3" t="str">
+      <c r="S19" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S19" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T19" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="str" cm="1">
-        <f t="array" ref="B20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="str" cm="1">
         <f t="array" ref="C20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5068,52 +5212,56 @@
         <f t="array" ref="I20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="2" t="str" cm="1">
+        <f t="array" ref="J20">IFERROR(VLOOKUP($A20,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R20" s="3" t="str">
+      <c r="S20" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S20" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T20" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="str" cm="1">
-        <f t="array" ref="B21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="str" cm="1">
         <f t="array" ref="C21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5142,52 +5290,56 @@
         <f t="array" ref="I21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="2" t="str" cm="1">
+        <f t="array" ref="J21">IFERROR(VLOOKUP($A21,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R21" s="3" t="str">
+      <c r="S21" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S21" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T21" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U21" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="str" cm="1">
-        <f t="array" ref="B22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="str" cm="1">
         <f t="array" ref="C22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5216,52 +5368,56 @@
         <f t="array" ref="I22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="2" t="str" cm="1">
+        <f t="array" ref="J22">IFERROR(VLOOKUP($A22,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R22" s="3" t="str">
+      <c r="S22" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S22" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T22" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U22" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="str" cm="1">
-        <f t="array" ref="B23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="str" cm="1">
         <f t="array" ref="C23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5290,52 +5446,56 @@
         <f t="array" ref="I23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="2" t="str" cm="1">
+        <f t="array" ref="J23">IFERROR(VLOOKUP($A23,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R23" s="3" t="str">
+      <c r="S23" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S23" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T23" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="str" cm="1">
-        <f t="array" ref="B24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="str" cm="1">
         <f t="array" ref="C24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5364,52 +5524,56 @@
         <f t="array" ref="I24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="2" t="str" cm="1">
+        <f t="array" ref="J24">IFERROR(VLOOKUP($A24,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R24" s="3" t="str">
+      <c r="S24" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S24" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T24" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="str" cm="1">
-        <f t="array" ref="B25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="str" cm="1">
         <f t="array" ref="C25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5438,52 +5602,56 @@
         <f t="array" ref="I25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="2" t="str" cm="1">
+        <f t="array" ref="J25">IFERROR(VLOOKUP($A25,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R25" s="3" t="str">
+      <c r="S25" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S25" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T25" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="str" cm="1">
-        <f t="array" ref="B26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="str" cm="1">
         <f t="array" ref="C26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5512,52 +5680,56 @@
         <f t="array" ref="I26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="2" t="str" cm="1">
+        <f t="array" ref="J26">IFERROR(VLOOKUP($A26,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R26" s="3" t="str">
+      <c r="S26" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S26" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T26" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U26" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="str" cm="1">
-        <f t="array" ref="B27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="str" cm="1">
         <f t="array" ref="C27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5586,52 +5758,56 @@
         <f t="array" ref="I27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="2" t="str" cm="1">
+        <f t="array" ref="J27">IFERROR(VLOOKUP($A27,_xlfn._xlws.SORT(_xlfn._xlws.FILTER('Time Sheet'!$A:$G,'Time Sheet'!$B:$B=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R27" s="3" t="str">
+      <c r="S27" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
-      <c r="S27" s="2">
-        <f>Table572[[#This Row],[Name]]</f>
+      <c r="T27" s="4" t="str">
+        <f>IFERROR(AVERAGE(SMALL(Table572[[#This Row],[P]:[P8]],1),SMALL(Table572[[#This Row],[P]:[P8]],2)),"")</f>
+        <v/>
+      </c>
+      <c r="U27" s="5">
+        <f>IF(COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12")&gt;2,2,COUNTIF(Table572[[#This Row],[P]:[P8]],"&lt;=12"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="str" cm="1">
-        <f t="array" ref="B28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="str" cm="1">
         <f t="array" ref="C28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5660,48 +5836,48 @@
         <f t="array" ref="I28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="2" t="str" cm="1">
+        <f t="array" ref="J28">IFERROR(VLOOKUP($A28,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R28" s="3" t="str">
+      <c r="S28" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="str" cm="1">
-        <f t="array" ref="B29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="str" cm="1">
         <f t="array" ref="C29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5730,48 +5906,48 @@
         <f t="array" ref="I29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="2" t="str" cm="1">
+        <f t="array" ref="J29">IFERROR(VLOOKUP($A29,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R29" s="3" t="str">
+      <c r="S29" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="str" cm="1">
-        <f t="array" ref="B30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="str" cm="1">
         <f t="array" ref="C30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5800,48 +5976,48 @@
         <f t="array" ref="I30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="2" t="str" cm="1">
+        <f t="array" ref="J30">IFERROR(VLOOKUP($A30,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R30" s="3" t="str">
+      <c r="S30" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="str" cm="1">
-        <f t="array" ref="B31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="str" cm="1">
         <f t="array" ref="C31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5870,48 +6046,48 @@
         <f t="array" ref="I31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="2" t="str" cm="1">
+        <f t="array" ref="J31">IFERROR(VLOOKUP($A31,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R31" s="3" t="str">
+      <c r="S31" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="str" cm="1">
-        <f t="array" ref="B32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="str" cm="1">
         <f t="array" ref="C32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5940,28 +6116,28 @@
         <f t="array" ref="I32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" ref="J32:L33" si="8">IFERROR(_xlfn.RANK.EQ(B32,B:B,1),"")</f>
+      <c r="J32" s="2" t="str" cm="1">
+        <f t="array" ref="J32">IFERROR(VLOOKUP($A32,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K32:M33" si="8">IFERROR(_xlfn.RANK.EQ(C32,C:C,1),"")</f>
         <v/>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R32" s="3" t="str">
+      <c r="M32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S32" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="str" cm="1">
-        <f t="array" ref="B33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=B$1),7,1),7,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="str" cm="1">
         <f t="array" ref="C33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=C$1),7,1),7,FALSE),"")</f>
         <v/>
@@ -5990,8 +6166,8 @@
         <f t="array" ref="I33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=I$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="8"/>
+      <c r="J33" s="2" t="str" cm="1">
+        <f t="array" ref="J33">IFERROR(VLOOKUP($A33,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(#REF!,#REF!=J$1),7,1),7,FALSE),"")</f>
         <v/>
       </c>
       <c r="K33" t="str">
@@ -6002,16 +6178,16 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R33" s="3" t="str">
+      <c r="M33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S33" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J34" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(#REF!,B:B,1),"")</f>
-        <v/>
-      </c>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="K34" t="str">
         <f>IFERROR(_xlfn.RANK.EQ(#REF!,C:C,1),"")</f>
         <v/>
@@ -6020,16 +6196,16 @@
         <f>IFERROR(_xlfn.RANK.EQ(#REF!,D:D,1),"")</f>
         <v/>
       </c>
-      <c r="R34" s="3" t="str">
+      <c r="M34" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(#REF!,E:E,1),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N35" t="str">
-        <f>IFERROR(_xlfn.RANK.EQ(F35,F:F,1),"")</f>
-        <v/>
-      </c>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="O35" t="str">
         <f>IFERROR(_xlfn.RANK.EQ(G35,G:G,1),"")</f>
         <v/>
@@ -6042,13 +6218,17 @@
         <f>IFERROR(_xlfn.RANK.EQ(I35,I:I,1),"")</f>
         <v/>
       </c>
-      <c r="R35" s="3" t="str">
+      <c r="R35" t="str">
+        <f>IFERROR(_xlfn.RANK.EQ(J35,J:J,1),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="3" t="str">
         <f>IFERROR(AVERAGE(Table572[[#This Row],[P]:[P8]]),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:Q27">
+  <conditionalFormatting sqref="K2:R27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6060,7 +6240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R27">
+  <conditionalFormatting sqref="S2:S27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6077,28 +6257,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" stopIfTrue="1" id="{A1526B84-4570-784D-8B4F-6E2B6BF2ABA7}">
-            <xm:f>B2&lt;='Time Standards'!B$2</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B2:I27</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
